--- a/qk_v_spectral_norm_tables.xlsx
+++ b/qk_v_spectral_norm_tables.xlsx
@@ -509,13 +509,13 @@
         <v>5.352284908294678</v>
       </c>
       <c r="C2" t="n">
-        <v>3.261864423751831</v>
+        <v>3.261864185333252</v>
       </c>
       <c r="D2" t="n">
-        <v>2.175684452056885</v>
+        <v>2.175683975219727</v>
       </c>
       <c r="E2" t="n">
-        <v>3.386782169342041</v>
+        <v>3.38678240776062</v>
       </c>
       <c r="F2" t="n">
         <v>2.438238143920898</v>
@@ -530,7 +530,7 @@
         <v>2.703882217407227</v>
       </c>
       <c r="J2" t="n">
-        <v>4.299221038818359</v>
+        <v>4.299220085144043</v>
       </c>
       <c r="K2" t="n">
         <v>1.520465850830078</v>
@@ -550,10 +550,10 @@
         <v>2.479400157928467</v>
       </c>
       <c r="C3" t="n">
-        <v>4.575433731079102</v>
+        <v>4.57543420791626</v>
       </c>
       <c r="D3" t="n">
-        <v>5.310578346252441</v>
+        <v>5.3105788230896</v>
       </c>
       <c r="E3" t="n">
         <v>2.425461769104004</v>
@@ -571,7 +571,7 @@
         <v>4.062199592590332</v>
       </c>
       <c r="J3" t="n">
-        <v>2.596855401992798</v>
+        <v>2.596855163574219</v>
       </c>
       <c r="K3" t="n">
         <v>1.45954966545105</v>
@@ -594,10 +594,10 @@
         <v>2.466578483581543</v>
       </c>
       <c r="D4" t="n">
-        <v>1.523366928100586</v>
+        <v>1.523366808891296</v>
       </c>
       <c r="E4" t="n">
-        <v>1.523210883140564</v>
+        <v>1.523210763931274</v>
       </c>
       <c r="F4" t="n">
         <v>1.773011207580566</v>
@@ -606,16 +606,16 @@
         <v>5.480339527130127</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2129225730896</v>
+        <v>2.212922811508179</v>
       </c>
       <c r="I4" t="n">
         <v>2.382912158966064</v>
       </c>
       <c r="J4" t="n">
-        <v>1.782092928886414</v>
+        <v>1.782092809677124</v>
       </c>
       <c r="K4" t="n">
-        <v>29.67324829101562</v>
+        <v>29.67324638366699</v>
       </c>
       <c r="L4" t="n">
         <v>1.666970014572144</v>
@@ -629,28 +629,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.265748977661133</v>
+        <v>7.265749454498291</v>
       </c>
       <c r="C5" t="n">
-        <v>2.248025894165039</v>
+        <v>2.248026371002197</v>
       </c>
       <c r="D5" t="n">
         <v>1.646166324615479</v>
       </c>
       <c r="E5" t="n">
-        <v>3.228504180908203</v>
+        <v>3.228504419326782</v>
       </c>
       <c r="F5" t="n">
         <v>2.587027072906494</v>
       </c>
       <c r="G5" t="n">
-        <v>8.309565544128418</v>
+        <v>8.309564590454102</v>
       </c>
       <c r="H5" t="n">
         <v>1.715488910675049</v>
       </c>
       <c r="I5" t="n">
-        <v>1.984070062637329</v>
+        <v>1.984070181846619</v>
       </c>
       <c r="J5" t="n">
         <v>1.725452303886414</v>
@@ -659,7 +659,7 @@
         <v>5.237835884094238</v>
       </c>
       <c r="L5" t="n">
-        <v>2.040955066680908</v>
+        <v>2.040955305099487</v>
       </c>
       <c r="M5" t="n">
         <v>3.109067916870117</v>
@@ -676,19 +676,19 @@
         <v>4.48985767364502</v>
       </c>
       <c r="D6" t="n">
-        <v>2.110134601593018</v>
+        <v>2.110134363174438</v>
       </c>
       <c r="E6" t="n">
-        <v>3.976749897003174</v>
+        <v>3.976750373840332</v>
       </c>
       <c r="F6" t="n">
-        <v>2.187174797058105</v>
+        <v>2.187175035476685</v>
       </c>
       <c r="G6" t="n">
         <v>2.291205167770386</v>
       </c>
       <c r="H6" t="n">
-        <v>1.998546361923218</v>
+        <v>1.998546242713928</v>
       </c>
       <c r="I6" t="n">
         <v>1.524368524551392</v>
@@ -700,10 +700,10 @@
         <v>1.65264630317688</v>
       </c>
       <c r="L6" t="n">
-        <v>2.257019758224487</v>
+        <v>2.257019519805908</v>
       </c>
       <c r="M6" t="n">
-        <v>4.053987979888916</v>
+        <v>4.053987503051758</v>
       </c>
     </row>
     <row r="7">
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.979037404060364</v>
+        <v>1.979037523269653</v>
       </c>
       <c r="C7" t="n">
         <v>1.944514513015747</v>
@@ -752,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.537683129310608</v>
+        <v>1.537683248519897</v>
       </c>
       <c r="C8" t="n">
         <v>1.873301863670349</v>
@@ -767,25 +767,25 @@
         <v>1.731852293014526</v>
       </c>
       <c r="G8" t="n">
-        <v>1.666742920875549</v>
+        <v>1.66674280166626</v>
       </c>
       <c r="H8" t="n">
         <v>2.205672264099121</v>
       </c>
       <c r="I8" t="n">
-        <v>1.722129821777344</v>
+        <v>1.722130060195923</v>
       </c>
       <c r="J8" t="n">
         <v>1.442644119262695</v>
       </c>
       <c r="K8" t="n">
-        <v>1.835380792617798</v>
+        <v>1.835380911827087</v>
       </c>
       <c r="L8" t="n">
         <v>1.660197973251343</v>
       </c>
       <c r="M8" t="n">
-        <v>3.49726676940918</v>
+        <v>3.497267007827759</v>
       </c>
     </row>
     <row r="9">
@@ -805,10 +805,10 @@
         <v>1.770932674407959</v>
       </c>
       <c r="F9" t="n">
-        <v>3.399834394454956</v>
+        <v>3.399834156036377</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84869396686554</v>
+        <v>1.84869384765625</v>
       </c>
       <c r="H9" t="n">
         <v>2.12592887878418</v>
@@ -852,22 +852,22 @@
         <v>2.888980150222778</v>
       </c>
       <c r="H10" t="n">
-        <v>3.193047523498535</v>
+        <v>3.193047285079956</v>
       </c>
       <c r="I10" t="n">
-        <v>1.588488340377808</v>
+        <v>1.588488101959229</v>
       </c>
       <c r="J10" t="n">
-        <v>1.487843036651611</v>
+        <v>1.487843155860901</v>
       </c>
       <c r="K10" t="n">
-        <v>2.133542537689209</v>
+        <v>2.133542776107788</v>
       </c>
       <c r="L10" t="n">
         <v>2.173822402954102</v>
       </c>
       <c r="M10" t="n">
-        <v>1.996632933616638</v>
+        <v>1.996633052825928</v>
       </c>
     </row>
     <row r="11">
@@ -881,7 +881,7 @@
         <v>1.787197351455688</v>
       </c>
       <c r="D11" t="n">
-        <v>2.282227993011475</v>
+        <v>2.282227754592896</v>
       </c>
       <c r="E11" t="n">
         <v>2.547756910324097</v>
@@ -893,7 +893,7 @@
         <v>2.494777202606201</v>
       </c>
       <c r="H11" t="n">
-        <v>3.049696207046509</v>
+        <v>3.04969596862793</v>
       </c>
       <c r="I11" t="n">
         <v>1.983228921890259</v>
@@ -902,7 +902,7 @@
         <v>1.695042371749878</v>
       </c>
       <c r="K11" t="n">
-        <v>2.053302764892578</v>
+        <v>2.053303003311157</v>
       </c>
       <c r="L11" t="n">
         <v>2.177032947540283</v>
@@ -916,40 +916,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.386867642402649</v>
+        <v>1.386867523193359</v>
       </c>
       <c r="C12" t="n">
-        <v>2.047544717788696</v>
+        <v>2.047544956207275</v>
       </c>
       <c r="D12" t="n">
-        <v>1.759368181228638</v>
+        <v>1.759368062019348</v>
       </c>
       <c r="E12" t="n">
-        <v>1.742779970169067</v>
+        <v>1.742780089378357</v>
       </c>
       <c r="F12" t="n">
-        <v>2.258090734481812</v>
+        <v>2.258090972900391</v>
       </c>
       <c r="G12" t="n">
-        <v>2.898614168167114</v>
+        <v>2.898613929748535</v>
       </c>
       <c r="H12" t="n">
         <v>2.177516460418701</v>
       </c>
       <c r="I12" t="n">
-        <v>2.056065559387207</v>
+        <v>2.056065320968628</v>
       </c>
       <c r="J12" t="n">
-        <v>1.323315858840942</v>
+        <v>1.323315739631653</v>
       </c>
       <c r="K12" t="n">
-        <v>2.326498031616211</v>
+        <v>2.326497793197632</v>
       </c>
       <c r="L12" t="n">
-        <v>2.517811059951782</v>
+        <v>2.517811298370361</v>
       </c>
       <c r="M12" t="n">
-        <v>2.633562088012695</v>
+        <v>2.633561849594116</v>
       </c>
     </row>
     <row r="13">
@@ -957,19 +957,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.985998630523682</v>
+        <v>1.985998392105103</v>
       </c>
       <c r="C13" t="n">
-        <v>2.708582878112793</v>
+        <v>2.708582639694214</v>
       </c>
       <c r="D13" t="n">
         <v>1.724510788917542</v>
       </c>
       <c r="E13" t="n">
-        <v>2.536527395248413</v>
+        <v>2.536527156829834</v>
       </c>
       <c r="F13" t="n">
-        <v>1.869810223579407</v>
+        <v>1.869810104370117</v>
       </c>
       <c r="G13" t="n">
         <v>2.10472297668457</v>
@@ -978,7 +978,7 @@
         <v>1.990128397941589</v>
       </c>
       <c r="I13" t="n">
-        <v>2.282059192657471</v>
+        <v>2.28205943107605</v>
       </c>
       <c r="J13" t="n">
         <v>2.567025661468506</v>
@@ -1087,10 +1087,10 @@
         <v>1.137670993804932</v>
       </c>
       <c r="C2" t="n">
-        <v>1.1140376329422</v>
+        <v>1.11403751373291</v>
       </c>
       <c r="D2" t="n">
-        <v>1.097013235092163</v>
+        <v>1.097013354301453</v>
       </c>
       <c r="E2" t="n">
         <v>0.9389089345932007</v>
@@ -1108,7 +1108,7 @@
         <v>1.097420454025269</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9675320982933044</v>
+        <v>0.9675320386886597</v>
       </c>
       <c r="K2" t="n">
         <v>1.152578711509705</v>
@@ -1131,25 +1131,25 @@
         <v>1.029514312744141</v>
       </c>
       <c r="D3" t="n">
-        <v>1.431922793388367</v>
+        <v>1.431922912597656</v>
       </c>
       <c r="E3" t="n">
         <v>1.472138643264771</v>
       </c>
       <c r="F3" t="n">
-        <v>1.003044843673706</v>
+        <v>1.003044724464417</v>
       </c>
       <c r="G3" t="n">
         <v>1.223445892333984</v>
       </c>
       <c r="H3" t="n">
-        <v>1.123905539512634</v>
+        <v>1.123905420303345</v>
       </c>
       <c r="I3" t="n">
-        <v>1.46125340461731</v>
+        <v>1.46125328540802</v>
       </c>
       <c r="J3" t="n">
-        <v>1.23748242855072</v>
+        <v>1.237482309341431</v>
       </c>
       <c r="K3" t="n">
         <v>1.404424905776978</v>
@@ -1184,13 +1184,13 @@
         <v>1.25777542591095</v>
       </c>
       <c r="H4" t="n">
-        <v>1.191757559776306</v>
+        <v>1.191757440567017</v>
       </c>
       <c r="I4" t="n">
-        <v>1.238632559776306</v>
+        <v>1.238632678985596</v>
       </c>
       <c r="J4" t="n">
-        <v>1.311808824539185</v>
+        <v>1.311808586120605</v>
       </c>
       <c r="K4" t="n">
         <v>0.7772070169448853</v>
@@ -1207,13 +1207,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.228966355323792</v>
+        <v>1.228966474533081</v>
       </c>
       <c r="C5" t="n">
         <v>1.33761191368103</v>
       </c>
       <c r="D5" t="n">
-        <v>1.620136260986328</v>
+        <v>1.620136022567749</v>
       </c>
       <c r="E5" t="n">
         <v>1.371540307998657</v>
@@ -1222,22 +1222,22 @@
         <v>1.472293376922607</v>
       </c>
       <c r="G5" t="n">
-        <v>1.154558897018433</v>
+        <v>1.154558777809143</v>
       </c>
       <c r="H5" t="n">
         <v>1.377839088439941</v>
       </c>
       <c r="I5" t="n">
-        <v>1.760077357292175</v>
+        <v>1.760077595710754</v>
       </c>
       <c r="J5" t="n">
-        <v>1.211632251739502</v>
+        <v>1.211632370948792</v>
       </c>
       <c r="K5" t="n">
         <v>1.169581413269043</v>
       </c>
       <c r="L5" t="n">
-        <v>1.026866436004639</v>
+        <v>1.026866316795349</v>
       </c>
       <c r="M5" t="n">
         <v>1.297131419181824</v>
@@ -1248,13 +1248,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.195576429367065</v>
+        <v>1.195576548576355</v>
       </c>
       <c r="C6" t="n">
         <v>1.376140356063843</v>
       </c>
       <c r="D6" t="n">
-        <v>1.773988962173462</v>
+        <v>1.773988723754883</v>
       </c>
       <c r="E6" t="n">
         <v>1.48551082611084</v>
@@ -1269,10 +1269,10 @@
         <v>1.221822261810303</v>
       </c>
       <c r="I6" t="n">
-        <v>1.172806739807129</v>
+        <v>1.172806620597839</v>
       </c>
       <c r="J6" t="n">
-        <v>1.373170018196106</v>
+        <v>1.373170137405396</v>
       </c>
       <c r="K6" t="n">
         <v>1.536200046539307</v>
@@ -1281,7 +1281,7 @@
         <v>1.299442529678345</v>
       </c>
       <c r="M6" t="n">
-        <v>1.305282831192017</v>
+        <v>1.305282711982727</v>
       </c>
     </row>
     <row r="7">
@@ -1289,22 +1289,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.386445283889771</v>
+        <v>1.386445164680481</v>
       </c>
       <c r="C7" t="n">
-        <v>1.245637774467468</v>
+        <v>1.245637655258179</v>
       </c>
       <c r="D7" t="n">
-        <v>1.450769424438477</v>
+        <v>1.450769543647766</v>
       </c>
       <c r="E7" t="n">
-        <v>1.434465408325195</v>
+        <v>1.434465289115906</v>
       </c>
       <c r="F7" t="n">
-        <v>1.418074488639832</v>
+        <v>1.418074250221252</v>
       </c>
       <c r="G7" t="n">
-        <v>1.44256854057312</v>
+        <v>1.442568302154541</v>
       </c>
       <c r="H7" t="n">
         <v>1.059098720550537</v>
@@ -1316,7 +1316,7 @@
         <v>1.619836807250977</v>
       </c>
       <c r="K7" t="n">
-        <v>1.021729946136475</v>
+        <v>1.021730065345764</v>
       </c>
       <c r="L7" t="n">
         <v>1.156548500061035</v>
@@ -1336,10 +1336,10 @@
         <v>1.394299983978271</v>
       </c>
       <c r="D8" t="n">
-        <v>1.197433352470398</v>
+        <v>1.197433590888977</v>
       </c>
       <c r="E8" t="n">
-        <v>1.122863531112671</v>
+        <v>1.122863411903381</v>
       </c>
       <c r="F8" t="n">
         <v>1.079149723052979</v>
@@ -1348,10 +1348,10 @@
         <v>1.097097158432007</v>
       </c>
       <c r="H8" t="n">
-        <v>1.288841962814331</v>
+        <v>1.288842082023621</v>
       </c>
       <c r="I8" t="n">
-        <v>1.744637727737427</v>
+        <v>1.744637489318848</v>
       </c>
       <c r="J8" t="n">
         <v>1.585448503494263</v>
@@ -1360,7 +1360,7 @@
         <v>1.093070268630981</v>
       </c>
       <c r="L8" t="n">
-        <v>1.064193606376648</v>
+        <v>1.064193725585938</v>
       </c>
       <c r="M8" t="n">
         <v>0.9563988447189331</v>
@@ -1371,28 +1371,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.453379988670349</v>
+        <v>1.45337986946106</v>
       </c>
       <c r="C9" t="n">
-        <v>1.320192813873291</v>
+        <v>1.320192933082581</v>
       </c>
       <c r="D9" t="n">
         <v>1.216365218162537</v>
       </c>
       <c r="E9" t="n">
-        <v>1.074651718139648</v>
+        <v>1.074651598930359</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8814425468444824</v>
+        <v>0.8814424872398376</v>
       </c>
       <c r="G9" t="n">
         <v>1.206554889678955</v>
       </c>
       <c r="H9" t="n">
-        <v>1.095345020294189</v>
+        <v>1.0953449010849</v>
       </c>
       <c r="I9" t="n">
-        <v>1.176679611206055</v>
+        <v>1.176679372787476</v>
       </c>
       <c r="J9" t="n">
         <v>1.314294815063477</v>
@@ -1404,7 +1404,7 @@
         <v>1.035093307495117</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07071316242218</v>
+        <v>1.07071328163147</v>
       </c>
     </row>
     <row r="10">
@@ -1412,31 +1412,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.218674778938293</v>
+        <v>1.218674659729004</v>
       </c>
       <c r="C10" t="n">
-        <v>1.482336282730103</v>
+        <v>1.482336401939392</v>
       </c>
       <c r="D10" t="n">
-        <v>1.111610412597656</v>
+        <v>1.111610531806946</v>
       </c>
       <c r="E10" t="n">
-        <v>1.105456590652466</v>
+        <v>1.105456709861755</v>
       </c>
       <c r="F10" t="n">
-        <v>1.454208850860596</v>
+        <v>1.454209089279175</v>
       </c>
       <c r="G10" t="n">
-        <v>1.031773567199707</v>
+        <v>1.031773686408997</v>
       </c>
       <c r="H10" t="n">
-        <v>1.179277777671814</v>
+        <v>1.179277658462524</v>
       </c>
       <c r="I10" t="n">
-        <v>1.471709966659546</v>
+        <v>1.471709847450256</v>
       </c>
       <c r="J10" t="n">
-        <v>1.572224140167236</v>
+        <v>1.572224020957947</v>
       </c>
       <c r="K10" t="n">
         <v>1.319639921188354</v>
@@ -1453,13 +1453,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.140983581542969</v>
+        <v>1.140983462333679</v>
       </c>
       <c r="C11" t="n">
-        <v>1.143793106079102</v>
+        <v>1.143793225288391</v>
       </c>
       <c r="D11" t="n">
-        <v>1.167060971260071</v>
+        <v>1.16706109046936</v>
       </c>
       <c r="E11" t="n">
         <v>1.145616292953491</v>
@@ -1468,22 +1468,22 @@
         <v>1.010146141052246</v>
       </c>
       <c r="G11" t="n">
-        <v>1.473103761672974</v>
+        <v>1.473103880882263</v>
       </c>
       <c r="H11" t="n">
         <v>1.282465100288391</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9692022800445557</v>
+        <v>0.9692022204399109</v>
       </c>
       <c r="J11" t="n">
         <v>1.38813042640686</v>
       </c>
       <c r="K11" t="n">
-        <v>1.031690835952759</v>
+        <v>1.031690716743469</v>
       </c>
       <c r="L11" t="n">
-        <v>1.263752102851868</v>
+        <v>1.263751983642578</v>
       </c>
       <c r="M11" t="n">
         <v>1.549980640411377</v>
@@ -1494,25 +1494,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.559248328208923</v>
+        <v>1.559248566627502</v>
       </c>
       <c r="C12" t="n">
-        <v>1.238549947738647</v>
+        <v>1.238549709320068</v>
       </c>
       <c r="D12" t="n">
         <v>1.489127397537231</v>
       </c>
       <c r="E12" t="n">
-        <v>1.597476243972778</v>
+        <v>1.597476005554199</v>
       </c>
       <c r="F12" t="n">
-        <v>1.119746088981628</v>
+        <v>1.119745969772339</v>
       </c>
       <c r="G12" t="n">
         <v>1.329448461532593</v>
       </c>
       <c r="H12" t="n">
-        <v>1.103220701217651</v>
+        <v>1.103220462799072</v>
       </c>
       <c r="I12" t="n">
         <v>1.372073888778687</v>
@@ -1524,7 +1524,7 @@
         <v>1.291077136993408</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8920153379440308</v>
+        <v>0.8920152187347412</v>
       </c>
       <c r="M12" t="n">
         <v>1.398956179618835</v>
@@ -1535,40 +1535,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.522117137908936</v>
+        <v>1.522117018699646</v>
       </c>
       <c r="C13" t="n">
         <v>1.538335561752319</v>
       </c>
       <c r="D13" t="n">
-        <v>1.741485357284546</v>
+        <v>1.741485476493835</v>
       </c>
       <c r="E13" t="n">
-        <v>1.849910259246826</v>
+        <v>1.849910140037537</v>
       </c>
       <c r="F13" t="n">
-        <v>1.295146822929382</v>
+        <v>1.295146942138672</v>
       </c>
       <c r="G13" t="n">
-        <v>1.216165661811829</v>
+        <v>1.216165542602539</v>
       </c>
       <c r="H13" t="n">
-        <v>1.741443037986755</v>
+        <v>1.741443157196045</v>
       </c>
       <c r="I13" t="n">
         <v>1.293764114379883</v>
       </c>
       <c r="J13" t="n">
-        <v>1.529344916343689</v>
+        <v>1.529344797134399</v>
       </c>
       <c r="K13" t="n">
-        <v>1.590175032615662</v>
+        <v>1.590175151824951</v>
       </c>
       <c r="L13" t="n">
         <v>1.643144130706787</v>
       </c>
       <c r="M13" t="n">
-        <v>1.251956701278687</v>
+        <v>1.251956462860107</v>
       </c>
     </row>
   </sheetData>

--- a/qk_v_spectral_norm_tables.xlsx
+++ b/qk_v_spectral_norm_tables.xlsx
@@ -509,13 +509,13 @@
         <v>5.352284908294678</v>
       </c>
       <c r="C2" t="n">
-        <v>3.261864185333252</v>
+        <v>3.261864423751831</v>
       </c>
       <c r="D2" t="n">
-        <v>2.175683975219727</v>
+        <v>2.175684452056885</v>
       </c>
       <c r="E2" t="n">
-        <v>3.38678240776062</v>
+        <v>3.386782169342041</v>
       </c>
       <c r="F2" t="n">
         <v>2.438238143920898</v>
@@ -530,7 +530,7 @@
         <v>2.703882217407227</v>
       </c>
       <c r="J2" t="n">
-        <v>4.299220085144043</v>
+        <v>4.299221038818359</v>
       </c>
       <c r="K2" t="n">
         <v>1.520465850830078</v>
@@ -550,10 +550,10 @@
         <v>2.479400157928467</v>
       </c>
       <c r="C3" t="n">
-        <v>4.57543420791626</v>
+        <v>4.575433731079102</v>
       </c>
       <c r="D3" t="n">
-        <v>5.3105788230896</v>
+        <v>5.310578346252441</v>
       </c>
       <c r="E3" t="n">
         <v>2.425461769104004</v>
@@ -571,7 +571,7 @@
         <v>4.062199592590332</v>
       </c>
       <c r="J3" t="n">
-        <v>2.596855163574219</v>
+        <v>2.596855401992798</v>
       </c>
       <c r="K3" t="n">
         <v>1.45954966545105</v>
@@ -594,10 +594,10 @@
         <v>2.466578483581543</v>
       </c>
       <c r="D4" t="n">
-        <v>1.523366808891296</v>
+        <v>1.523366928100586</v>
       </c>
       <c r="E4" t="n">
-        <v>1.523210763931274</v>
+        <v>1.523210883140564</v>
       </c>
       <c r="F4" t="n">
         <v>1.773011207580566</v>
@@ -606,16 +606,16 @@
         <v>5.480339527130127</v>
       </c>
       <c r="H4" t="n">
-        <v>2.212922811508179</v>
+        <v>2.2129225730896</v>
       </c>
       <c r="I4" t="n">
         <v>2.382912158966064</v>
       </c>
       <c r="J4" t="n">
-        <v>1.782092809677124</v>
+        <v>1.782092928886414</v>
       </c>
       <c r="K4" t="n">
-        <v>29.67324638366699</v>
+        <v>29.67324829101562</v>
       </c>
       <c r="L4" t="n">
         <v>1.666970014572144</v>
@@ -629,28 +629,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.265749454498291</v>
+        <v>7.265748977661133</v>
       </c>
       <c r="C5" t="n">
-        <v>2.248026371002197</v>
+        <v>2.248025894165039</v>
       </c>
       <c r="D5" t="n">
         <v>1.646166324615479</v>
       </c>
       <c r="E5" t="n">
-        <v>3.228504419326782</v>
+        <v>3.228504180908203</v>
       </c>
       <c r="F5" t="n">
         <v>2.587027072906494</v>
       </c>
       <c r="G5" t="n">
-        <v>8.309564590454102</v>
+        <v>8.309565544128418</v>
       </c>
       <c r="H5" t="n">
         <v>1.715488910675049</v>
       </c>
       <c r="I5" t="n">
-        <v>1.984070181846619</v>
+        <v>1.984070062637329</v>
       </c>
       <c r="J5" t="n">
         <v>1.725452303886414</v>
@@ -659,7 +659,7 @@
         <v>5.237835884094238</v>
       </c>
       <c r="L5" t="n">
-        <v>2.040955305099487</v>
+        <v>2.040955066680908</v>
       </c>
       <c r="M5" t="n">
         <v>3.109067916870117</v>
@@ -676,19 +676,19 @@
         <v>4.48985767364502</v>
       </c>
       <c r="D6" t="n">
-        <v>2.110134363174438</v>
+        <v>2.110134601593018</v>
       </c>
       <c r="E6" t="n">
-        <v>3.976750373840332</v>
+        <v>3.976749897003174</v>
       </c>
       <c r="F6" t="n">
-        <v>2.187175035476685</v>
+        <v>2.187174797058105</v>
       </c>
       <c r="G6" t="n">
         <v>2.291205167770386</v>
       </c>
       <c r="H6" t="n">
-        <v>1.998546242713928</v>
+        <v>1.998546361923218</v>
       </c>
       <c r="I6" t="n">
         <v>1.524368524551392</v>
@@ -700,10 +700,10 @@
         <v>1.65264630317688</v>
       </c>
       <c r="L6" t="n">
-        <v>2.257019519805908</v>
+        <v>2.257019758224487</v>
       </c>
       <c r="M6" t="n">
-        <v>4.053987503051758</v>
+        <v>4.053987979888916</v>
       </c>
     </row>
     <row r="7">
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.979037523269653</v>
+        <v>1.979037404060364</v>
       </c>
       <c r="C7" t="n">
         <v>1.944514513015747</v>
@@ -752,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.537683248519897</v>
+        <v>1.537683129310608</v>
       </c>
       <c r="C8" t="n">
         <v>1.873301863670349</v>
@@ -767,25 +767,25 @@
         <v>1.731852293014526</v>
       </c>
       <c r="G8" t="n">
-        <v>1.66674280166626</v>
+        <v>1.666742920875549</v>
       </c>
       <c r="H8" t="n">
         <v>2.205672264099121</v>
       </c>
       <c r="I8" t="n">
-        <v>1.722130060195923</v>
+        <v>1.722129821777344</v>
       </c>
       <c r="J8" t="n">
         <v>1.442644119262695</v>
       </c>
       <c r="K8" t="n">
-        <v>1.835380911827087</v>
+        <v>1.835380792617798</v>
       </c>
       <c r="L8" t="n">
         <v>1.660197973251343</v>
       </c>
       <c r="M8" t="n">
-        <v>3.497267007827759</v>
+        <v>3.49726676940918</v>
       </c>
     </row>
     <row r="9">
@@ -805,10 +805,10 @@
         <v>1.770932674407959</v>
       </c>
       <c r="F9" t="n">
-        <v>3.399834156036377</v>
+        <v>3.399834394454956</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84869384765625</v>
+        <v>1.84869396686554</v>
       </c>
       <c r="H9" t="n">
         <v>2.12592887878418</v>
@@ -852,22 +852,22 @@
         <v>2.888980150222778</v>
       </c>
       <c r="H10" t="n">
-        <v>3.193047285079956</v>
+        <v>3.193047523498535</v>
       </c>
       <c r="I10" t="n">
-        <v>1.588488101959229</v>
+        <v>1.588488340377808</v>
       </c>
       <c r="J10" t="n">
-        <v>1.487843155860901</v>
+        <v>1.487843036651611</v>
       </c>
       <c r="K10" t="n">
-        <v>2.133542776107788</v>
+        <v>2.133542537689209</v>
       </c>
       <c r="L10" t="n">
         <v>2.173822402954102</v>
       </c>
       <c r="M10" t="n">
-        <v>1.996633052825928</v>
+        <v>1.996632933616638</v>
       </c>
     </row>
     <row r="11">
@@ -881,7 +881,7 @@
         <v>1.787197351455688</v>
       </c>
       <c r="D11" t="n">
-        <v>2.282227754592896</v>
+        <v>2.282227993011475</v>
       </c>
       <c r="E11" t="n">
         <v>2.547756910324097</v>
@@ -893,7 +893,7 @@
         <v>2.494777202606201</v>
       </c>
       <c r="H11" t="n">
-        <v>3.04969596862793</v>
+        <v>3.049696207046509</v>
       </c>
       <c r="I11" t="n">
         <v>1.983228921890259</v>
@@ -902,7 +902,7 @@
         <v>1.695042371749878</v>
       </c>
       <c r="K11" t="n">
-        <v>2.053303003311157</v>
+        <v>2.053302764892578</v>
       </c>
       <c r="L11" t="n">
         <v>2.177032947540283</v>
@@ -916,40 +916,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.386867523193359</v>
+        <v>1.386867642402649</v>
       </c>
       <c r="C12" t="n">
-        <v>2.047544956207275</v>
+        <v>2.047544717788696</v>
       </c>
       <c r="D12" t="n">
-        <v>1.759368062019348</v>
+        <v>1.759368181228638</v>
       </c>
       <c r="E12" t="n">
-        <v>1.742780089378357</v>
+        <v>1.742779970169067</v>
       </c>
       <c r="F12" t="n">
-        <v>2.258090972900391</v>
+        <v>2.258090734481812</v>
       </c>
       <c r="G12" t="n">
-        <v>2.898613929748535</v>
+        <v>2.898614168167114</v>
       </c>
       <c r="H12" t="n">
         <v>2.177516460418701</v>
       </c>
       <c r="I12" t="n">
-        <v>2.056065320968628</v>
+        <v>2.056065559387207</v>
       </c>
       <c r="J12" t="n">
-        <v>1.323315739631653</v>
+        <v>1.323315858840942</v>
       </c>
       <c r="K12" t="n">
-        <v>2.326497793197632</v>
+        <v>2.326498031616211</v>
       </c>
       <c r="L12" t="n">
-        <v>2.517811298370361</v>
+        <v>2.517811059951782</v>
       </c>
       <c r="M12" t="n">
-        <v>2.633561849594116</v>
+        <v>2.633562088012695</v>
       </c>
     </row>
     <row r="13">
@@ -957,19 +957,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.985998392105103</v>
+        <v>1.985998630523682</v>
       </c>
       <c r="C13" t="n">
-        <v>2.708582639694214</v>
+        <v>2.708582878112793</v>
       </c>
       <c r="D13" t="n">
         <v>1.724510788917542</v>
       </c>
       <c r="E13" t="n">
-        <v>2.536527156829834</v>
+        <v>2.536527395248413</v>
       </c>
       <c r="F13" t="n">
-        <v>1.869810104370117</v>
+        <v>1.869810223579407</v>
       </c>
       <c r="G13" t="n">
         <v>2.10472297668457</v>
@@ -978,7 +978,7 @@
         <v>1.990128397941589</v>
       </c>
       <c r="I13" t="n">
-        <v>2.28205943107605</v>
+        <v>2.282059192657471</v>
       </c>
       <c r="J13" t="n">
         <v>2.567025661468506</v>
@@ -1087,10 +1087,10 @@
         <v>1.137670993804932</v>
       </c>
       <c r="C2" t="n">
-        <v>1.11403751373291</v>
+        <v>1.1140376329422</v>
       </c>
       <c r="D2" t="n">
-        <v>1.097013354301453</v>
+        <v>1.097013235092163</v>
       </c>
       <c r="E2" t="n">
         <v>0.9389089345932007</v>
@@ -1108,7 +1108,7 @@
         <v>1.097420454025269</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9675320386886597</v>
+        <v>0.9675320982933044</v>
       </c>
       <c r="K2" t="n">
         <v>1.152578711509705</v>
@@ -1131,25 +1131,25 @@
         <v>1.029514312744141</v>
       </c>
       <c r="D3" t="n">
-        <v>1.431922912597656</v>
+        <v>1.431922793388367</v>
       </c>
       <c r="E3" t="n">
         <v>1.472138643264771</v>
       </c>
       <c r="F3" t="n">
-        <v>1.003044724464417</v>
+        <v>1.003044843673706</v>
       </c>
       <c r="G3" t="n">
         <v>1.223445892333984</v>
       </c>
       <c r="H3" t="n">
-        <v>1.123905420303345</v>
+        <v>1.123905539512634</v>
       </c>
       <c r="I3" t="n">
-        <v>1.46125328540802</v>
+        <v>1.46125340461731</v>
       </c>
       <c r="J3" t="n">
-        <v>1.237482309341431</v>
+        <v>1.23748242855072</v>
       </c>
       <c r="K3" t="n">
         <v>1.404424905776978</v>
@@ -1184,13 +1184,13 @@
         <v>1.25777542591095</v>
       </c>
       <c r="H4" t="n">
-        <v>1.191757440567017</v>
+        <v>1.191757559776306</v>
       </c>
       <c r="I4" t="n">
-        <v>1.238632678985596</v>
+        <v>1.238632559776306</v>
       </c>
       <c r="J4" t="n">
-        <v>1.311808586120605</v>
+        <v>1.311808824539185</v>
       </c>
       <c r="K4" t="n">
         <v>0.7772070169448853</v>
@@ -1207,13 +1207,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.228966474533081</v>
+        <v>1.228966355323792</v>
       </c>
       <c r="C5" t="n">
         <v>1.33761191368103</v>
       </c>
       <c r="D5" t="n">
-        <v>1.620136022567749</v>
+        <v>1.620136260986328</v>
       </c>
       <c r="E5" t="n">
         <v>1.371540307998657</v>
@@ -1222,22 +1222,22 @@
         <v>1.472293376922607</v>
       </c>
       <c r="G5" t="n">
-        <v>1.154558777809143</v>
+        <v>1.154558897018433</v>
       </c>
       <c r="H5" t="n">
         <v>1.377839088439941</v>
       </c>
       <c r="I5" t="n">
-        <v>1.760077595710754</v>
+        <v>1.760077357292175</v>
       </c>
       <c r="J5" t="n">
-        <v>1.211632370948792</v>
+        <v>1.211632251739502</v>
       </c>
       <c r="K5" t="n">
         <v>1.169581413269043</v>
       </c>
       <c r="L5" t="n">
-        <v>1.026866316795349</v>
+        <v>1.026866436004639</v>
       </c>
       <c r="M5" t="n">
         <v>1.297131419181824</v>
@@ -1248,13 +1248,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.195576548576355</v>
+        <v>1.195576429367065</v>
       </c>
       <c r="C6" t="n">
         <v>1.376140356063843</v>
       </c>
       <c r="D6" t="n">
-        <v>1.773988723754883</v>
+        <v>1.773988962173462</v>
       </c>
       <c r="E6" t="n">
         <v>1.48551082611084</v>
@@ -1269,10 +1269,10 @@
         <v>1.221822261810303</v>
       </c>
       <c r="I6" t="n">
-        <v>1.172806620597839</v>
+        <v>1.172806739807129</v>
       </c>
       <c r="J6" t="n">
-        <v>1.373170137405396</v>
+        <v>1.373170018196106</v>
       </c>
       <c r="K6" t="n">
         <v>1.536200046539307</v>
@@ -1281,7 +1281,7 @@
         <v>1.299442529678345</v>
       </c>
       <c r="M6" t="n">
-        <v>1.305282711982727</v>
+        <v>1.305282831192017</v>
       </c>
     </row>
     <row r="7">
@@ -1289,22 +1289,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.386445164680481</v>
+        <v>1.386445283889771</v>
       </c>
       <c r="C7" t="n">
-        <v>1.245637655258179</v>
+        <v>1.245637774467468</v>
       </c>
       <c r="D7" t="n">
-        <v>1.450769543647766</v>
+        <v>1.450769424438477</v>
       </c>
       <c r="E7" t="n">
-        <v>1.434465289115906</v>
+        <v>1.434465408325195</v>
       </c>
       <c r="F7" t="n">
-        <v>1.418074250221252</v>
+        <v>1.418074488639832</v>
       </c>
       <c r="G7" t="n">
-        <v>1.442568302154541</v>
+        <v>1.44256854057312</v>
       </c>
       <c r="H7" t="n">
         <v>1.059098720550537</v>
@@ -1316,7 +1316,7 @@
         <v>1.619836807250977</v>
       </c>
       <c r="K7" t="n">
-        <v>1.021730065345764</v>
+        <v>1.021729946136475</v>
       </c>
       <c r="L7" t="n">
         <v>1.156548500061035</v>
@@ -1336,10 +1336,10 @@
         <v>1.394299983978271</v>
       </c>
       <c r="D8" t="n">
-        <v>1.197433590888977</v>
+        <v>1.197433352470398</v>
       </c>
       <c r="E8" t="n">
-        <v>1.122863411903381</v>
+        <v>1.122863531112671</v>
       </c>
       <c r="F8" t="n">
         <v>1.079149723052979</v>
@@ -1348,10 +1348,10 @@
         <v>1.097097158432007</v>
       </c>
       <c r="H8" t="n">
-        <v>1.288842082023621</v>
+        <v>1.288841962814331</v>
       </c>
       <c r="I8" t="n">
-        <v>1.744637489318848</v>
+        <v>1.744637727737427</v>
       </c>
       <c r="J8" t="n">
         <v>1.585448503494263</v>
@@ -1360,7 +1360,7 @@
         <v>1.093070268630981</v>
       </c>
       <c r="L8" t="n">
-        <v>1.064193725585938</v>
+        <v>1.064193606376648</v>
       </c>
       <c r="M8" t="n">
         <v>0.9563988447189331</v>
@@ -1371,28 +1371,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.45337986946106</v>
+        <v>1.453379988670349</v>
       </c>
       <c r="C9" t="n">
-        <v>1.320192933082581</v>
+        <v>1.320192813873291</v>
       </c>
       <c r="D9" t="n">
         <v>1.216365218162537</v>
       </c>
       <c r="E9" t="n">
-        <v>1.074651598930359</v>
+        <v>1.074651718139648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8814424872398376</v>
+        <v>0.8814425468444824</v>
       </c>
       <c r="G9" t="n">
         <v>1.206554889678955</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0953449010849</v>
+        <v>1.095345020294189</v>
       </c>
       <c r="I9" t="n">
-        <v>1.176679372787476</v>
+        <v>1.176679611206055</v>
       </c>
       <c r="J9" t="n">
         <v>1.314294815063477</v>
@@ -1404,7 +1404,7 @@
         <v>1.035093307495117</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07071328163147</v>
+        <v>1.07071316242218</v>
       </c>
     </row>
     <row r="10">
@@ -1412,31 +1412,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.218674659729004</v>
+        <v>1.218674778938293</v>
       </c>
       <c r="C10" t="n">
-        <v>1.482336401939392</v>
+        <v>1.482336282730103</v>
       </c>
       <c r="D10" t="n">
-        <v>1.111610531806946</v>
+        <v>1.111610412597656</v>
       </c>
       <c r="E10" t="n">
-        <v>1.105456709861755</v>
+        <v>1.105456590652466</v>
       </c>
       <c r="F10" t="n">
-        <v>1.454209089279175</v>
+        <v>1.454208850860596</v>
       </c>
       <c r="G10" t="n">
-        <v>1.031773686408997</v>
+        <v>1.031773567199707</v>
       </c>
       <c r="H10" t="n">
-        <v>1.179277658462524</v>
+        <v>1.179277777671814</v>
       </c>
       <c r="I10" t="n">
-        <v>1.471709847450256</v>
+        <v>1.471709966659546</v>
       </c>
       <c r="J10" t="n">
-        <v>1.572224020957947</v>
+        <v>1.572224140167236</v>
       </c>
       <c r="K10" t="n">
         <v>1.319639921188354</v>
@@ -1453,13 +1453,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.140983462333679</v>
+        <v>1.140983581542969</v>
       </c>
       <c r="C11" t="n">
-        <v>1.143793225288391</v>
+        <v>1.143793106079102</v>
       </c>
       <c r="D11" t="n">
-        <v>1.16706109046936</v>
+        <v>1.167060971260071</v>
       </c>
       <c r="E11" t="n">
         <v>1.145616292953491</v>
@@ -1468,22 +1468,22 @@
         <v>1.010146141052246</v>
       </c>
       <c r="G11" t="n">
-        <v>1.473103880882263</v>
+        <v>1.473103761672974</v>
       </c>
       <c r="H11" t="n">
         <v>1.282465100288391</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9692022204399109</v>
+        <v>0.9692022800445557</v>
       </c>
       <c r="J11" t="n">
         <v>1.38813042640686</v>
       </c>
       <c r="K11" t="n">
-        <v>1.031690716743469</v>
+        <v>1.031690835952759</v>
       </c>
       <c r="L11" t="n">
-        <v>1.263751983642578</v>
+        <v>1.263752102851868</v>
       </c>
       <c r="M11" t="n">
         <v>1.549980640411377</v>
@@ -1494,25 +1494,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.559248566627502</v>
+        <v>1.559248328208923</v>
       </c>
       <c r="C12" t="n">
-        <v>1.238549709320068</v>
+        <v>1.238549947738647</v>
       </c>
       <c r="D12" t="n">
         <v>1.489127397537231</v>
       </c>
       <c r="E12" t="n">
-        <v>1.597476005554199</v>
+        <v>1.597476243972778</v>
       </c>
       <c r="F12" t="n">
-        <v>1.119745969772339</v>
+        <v>1.119746088981628</v>
       </c>
       <c r="G12" t="n">
         <v>1.329448461532593</v>
       </c>
       <c r="H12" t="n">
-        <v>1.103220462799072</v>
+        <v>1.103220701217651</v>
       </c>
       <c r="I12" t="n">
         <v>1.372073888778687</v>
@@ -1524,7 +1524,7 @@
         <v>1.291077136993408</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8920152187347412</v>
+        <v>0.8920153379440308</v>
       </c>
       <c r="M12" t="n">
         <v>1.398956179618835</v>
@@ -1535,40 +1535,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.522117018699646</v>
+        <v>1.522117137908936</v>
       </c>
       <c r="C13" t="n">
         <v>1.538335561752319</v>
       </c>
       <c r="D13" t="n">
-        <v>1.741485476493835</v>
+        <v>1.741485357284546</v>
       </c>
       <c r="E13" t="n">
-        <v>1.849910140037537</v>
+        <v>1.849910259246826</v>
       </c>
       <c r="F13" t="n">
-        <v>1.295146942138672</v>
+        <v>1.295146822929382</v>
       </c>
       <c r="G13" t="n">
-        <v>1.216165542602539</v>
+        <v>1.216165661811829</v>
       </c>
       <c r="H13" t="n">
-        <v>1.741443157196045</v>
+        <v>1.741443037986755</v>
       </c>
       <c r="I13" t="n">
         <v>1.293764114379883</v>
       </c>
       <c r="J13" t="n">
-        <v>1.529344797134399</v>
+        <v>1.529344916343689</v>
       </c>
       <c r="K13" t="n">
-        <v>1.590175151824951</v>
+        <v>1.590175032615662</v>
       </c>
       <c r="L13" t="n">
         <v>1.643144130706787</v>
       </c>
       <c r="M13" t="n">
-        <v>1.251956462860107</v>
+        <v>1.251956701278687</v>
       </c>
     </row>
   </sheetData>
